--- a/generated_docs/WR_89708709_WeekEnding_070625.xlsx
+++ b/generated_docs/WR_89708709_WeekEnding_070625.xlsx
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 07/31/2025 08:47 AM</t>
+          <t>Report Generated On: 08/16/2025 12:47 AM</t>
         </is>
       </c>
     </row>

--- a/generated_docs/WR_89708709_WeekEnding_070625.xlsx
+++ b/generated_docs/WR_89708709_WeekEnding_070625.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I45"/>
+  <dimension ref="A2:I49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/16/2025 12:47 AM</t>
+          <t>Report Generated On: 08/18/2025 09:47 PM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>15295.28</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -742,7 +742,7 @@
       </c>
       <c r="B16" s="9" t="inlineStr">
         <is>
-          <t>POL-40-4</t>
+          <t>CNA-TR</t>
         </is>
       </c>
       <c r="C16" s="9" t="inlineStr">
@@ -752,7 +752,7 @@
       </c>
       <c r="D16" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 4</t>
+          <t>CNA,Transfer Conductor</t>
         </is>
       </c>
       <c r="E16" s="9" t="inlineStr">
@@ -761,11 +761,11 @@
         </is>
       </c>
       <c r="F16" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -776,7 +776,7 @@
       </c>
       <c r="B17" s="12" t="inlineStr">
         <is>
-          <t>PLA-BACK</t>
+          <t>POL-40-4</t>
         </is>
       </c>
       <c r="C17" s="12" t="inlineStr">
@@ -786,7 +786,7 @@
       </c>
       <c r="D17" s="12" t="inlineStr">
         <is>
-          <t>Difficult Location Equip Adder-Backyard</t>
+          <t>Pole,40ft,Class 4</t>
         </is>
       </c>
       <c r="E17" s="12" t="inlineStr">
@@ -795,627 +795,763 @@
         </is>
       </c>
       <c r="F17" s="13" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>2143.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="15" t="inlineStr">
+      <c r="A18" s="9" t="inlineStr">
+        <is>
+          <t>Point 03</t>
+        </is>
+      </c>
+      <c r="B18" s="9" t="inlineStr">
+        <is>
+          <t>PLA-BACK</t>
+        </is>
+      </c>
+      <c r="C18" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D18" s="9" t="inlineStr">
+        <is>
+          <t>Difficult Location Equip Adder-Backyard</t>
+        </is>
+      </c>
+      <c r="E18" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F18" s="10" t="n">
+        <v>18</v>
+      </c>
+      <c r="G18" s="10" t="inlineStr"/>
+      <c r="H18" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H18" s="16" t="n">
-        <v>2622.35</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="7" t="inlineStr">
+      <c r="H19" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="7" t="inlineStr">
         <is>
           <t>Tuesday (07/01/2025)</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="8" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="8" t="inlineStr">
         <is>
           <t>Point Number</t>
         </is>
       </c>
-      <c r="B22" s="8" t="inlineStr">
+      <c r="B23" s="8" t="inlineStr">
         <is>
           <t>Billable Unit Code</t>
         </is>
       </c>
-      <c r="C22" s="8" t="inlineStr">
+      <c r="C23" s="8" t="inlineStr">
         <is>
           <t>Work Type</t>
         </is>
       </c>
-      <c r="D22" s="8" t="inlineStr">
+      <c r="D23" s="8" t="inlineStr">
         <is>
           <t>Unit Description</t>
         </is>
       </c>
-      <c r="E22" s="8" t="inlineStr">
+      <c r="E23" s="8" t="inlineStr">
         <is>
           <t>Unit of Measure</t>
         </is>
       </c>
-      <c r="F22" s="8" t="inlineStr">
+      <c r="F23" s="8" t="inlineStr">
         <is>
           <t># Units</t>
         </is>
       </c>
-      <c r="G22" s="8" t="inlineStr">
+      <c r="G23" s="8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="H22" s="8" t="inlineStr">
+      <c r="H23" s="8" t="inlineStr">
         <is>
           <t>Pricing</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="9" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="9" t="inlineStr">
         <is>
           <t>Point 05</t>
         </is>
       </c>
-      <c r="B23" s="9" t="inlineStr">
+      <c r="B24" s="9" t="inlineStr">
         <is>
           <t>POL-40-4</t>
         </is>
       </c>
-      <c r="C23" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D23" s="9" t="inlineStr">
+      <c r="C24" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D24" s="9" t="inlineStr">
         <is>
           <t>Pole,40ft,Class 4</t>
         </is>
       </c>
-      <c r="E23" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F23" s="10" t="n">
+      <c r="E24" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F24" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="G23" s="10" t="inlineStr"/>
-      <c r="H23" s="11" t="n">
-        <v>478.55</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="12" t="inlineStr">
+      <c r="G24" s="10" t="inlineStr"/>
+      <c r="H24" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="12" t="inlineStr">
         <is>
           <t>Point 05</t>
         </is>
       </c>
-      <c r="B24" s="12" t="inlineStr">
+      <c r="B25" s="12" t="inlineStr">
         <is>
           <t>PLA-BACK</t>
         </is>
       </c>
-      <c r="C24" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D24" s="12" t="inlineStr">
+      <c r="C25" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D25" s="12" t="inlineStr">
         <is>
           <t>Difficult Location Equip Adder-Backyard</t>
         </is>
       </c>
-      <c r="E24" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F24" s="13" t="n">
+      <c r="E25" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F25" s="13" t="n">
         <v>8</v>
       </c>
-      <c r="G24" s="13" t="inlineStr"/>
-      <c r="H24" s="14" t="n">
-        <v>952.8</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="9" t="inlineStr">
+      <c r="G25" s="13" t="inlineStr"/>
+      <c r="H25" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="9" t="inlineStr">
         <is>
           <t>Point 05</t>
         </is>
       </c>
-      <c r="B25" s="9" t="inlineStr">
+      <c r="B26" s="9" t="inlineStr">
         <is>
           <t>PLA-BACK</t>
         </is>
       </c>
-      <c r="C25" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D25" s="9" t="inlineStr">
+      <c r="C26" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D26" s="9" t="inlineStr">
         <is>
           <t>Difficult Location Equip Adder-Backyard</t>
         </is>
       </c>
-      <c r="E25" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F25" s="10" t="n">
+      <c r="E26" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F26" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="G25" s="10" t="inlineStr"/>
-      <c r="H25" s="11" t="n">
-        <v>952.8</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="15" t="inlineStr">
+      <c r="G26" s="10" t="inlineStr"/>
+      <c r="H26" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H26" s="16" t="n">
-        <v>2384.15</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="7" t="inlineStr">
+      <c r="H27" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="inlineStr">
         <is>
           <t>Wednesday (07/02/2025)</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="8" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="8" t="inlineStr">
         <is>
           <t>Point Number</t>
         </is>
       </c>
-      <c r="B30" s="8" t="inlineStr">
+      <c r="B31" s="8" t="inlineStr">
         <is>
           <t>Billable Unit Code</t>
         </is>
       </c>
-      <c r="C30" s="8" t="inlineStr">
+      <c r="C31" s="8" t="inlineStr">
         <is>
           <t>Work Type</t>
         </is>
       </c>
-      <c r="D30" s="8" t="inlineStr">
+      <c r="D31" s="8" t="inlineStr">
         <is>
           <t>Unit Description</t>
         </is>
       </c>
-      <c r="E30" s="8" t="inlineStr">
+      <c r="E31" s="8" t="inlineStr">
         <is>
           <t>Unit of Measure</t>
         </is>
       </c>
-      <c r="F30" s="8" t="inlineStr">
+      <c r="F31" s="8" t="inlineStr">
         <is>
           <t># Units</t>
         </is>
       </c>
-      <c r="G30" s="8" t="inlineStr">
+      <c r="G31" s="8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="H30" s="8" t="inlineStr">
+      <c r="H31" s="8" t="inlineStr">
         <is>
           <t>Pricing</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="9" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="9" t="inlineStr">
         <is>
           <t>Point 07</t>
         </is>
       </c>
-      <c r="B31" s="9" t="inlineStr">
+      <c r="B32" s="9" t="inlineStr">
+        <is>
+          <t>GYD-MPY</t>
+        </is>
+      </c>
+      <c r="C32" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="inlineStr">
+        <is>
+          <t>GYD,Marker-Plastic-Yellow</t>
+        </is>
+      </c>
+      <c r="E32" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F32" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" s="10" t="inlineStr"/>
+      <c r="H32" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="12" t="inlineStr">
+        <is>
+          <t>Point 07</t>
+        </is>
+      </c>
+      <c r="B33" s="12" t="inlineStr">
+        <is>
+          <t>GYF-38-42W-I</t>
+        </is>
+      </c>
+      <c r="C33" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D33" s="12" t="inlineStr">
+        <is>
+          <t>GYF,3/8,42In Wire Mt,Insulator Adder</t>
+        </is>
+      </c>
+      <c r="E33" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F33" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" s="13" t="inlineStr"/>
+      <c r="H33" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="9" t="inlineStr">
+        <is>
+          <t>Point 07</t>
+        </is>
+      </c>
+      <c r="B34" s="9" t="inlineStr">
         <is>
           <t>GYF-38-D-78P-EP</t>
         </is>
       </c>
-      <c r="C31" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D31" s="9" t="inlineStr">
+      <c r="C34" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="inlineStr">
         <is>
           <t>GYF,3/8,Down,78in Pole mt,EyePlate</t>
         </is>
       </c>
-      <c r="E31" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F31" s="10" t="n">
+      <c r="E34" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F34" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="G31" s="10" t="inlineStr"/>
-      <c r="H31" s="11" t="n">
-        <v>79.34999999999999</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="12" t="inlineStr">
+      <c r="G34" s="10" t="inlineStr"/>
+      <c r="H34" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="12" t="inlineStr">
         <is>
           <t>Point 07</t>
         </is>
       </c>
-      <c r="B32" s="12" t="inlineStr">
+      <c r="B35" s="12" t="inlineStr">
+        <is>
+          <t>GYW-38</t>
+        </is>
+      </c>
+      <c r="C35" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D35" s="12" t="inlineStr">
+        <is>
+          <t>GYW,3/8 in. EHS (15,400 lbs)</t>
+        </is>
+      </c>
+      <c r="E35" s="12" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F35" s="13" t="n">
+        <v>40</v>
+      </c>
+      <c r="G35" s="13" t="inlineStr"/>
+      <c r="H35" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="9" t="inlineStr">
+        <is>
+          <t>Point 07</t>
+        </is>
+      </c>
+      <c r="B36" s="9" t="inlineStr">
         <is>
           <t>POL-40-4</t>
         </is>
       </c>
-      <c r="C32" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D32" s="12" t="inlineStr">
+      <c r="C36" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="inlineStr">
         <is>
           <t>Pole,40ft,Class 4</t>
         </is>
       </c>
-      <c r="E32" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F32" s="13" t="n">
+      <c r="E36" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F36" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="G32" s="13" t="inlineStr"/>
-      <c r="H32" s="14" t="n">
-        <v>478.55</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="9" t="inlineStr">
+      <c r="G36" s="10" t="inlineStr"/>
+      <c r="H36" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="12" t="inlineStr">
         <is>
           <t>Point 07</t>
         </is>
       </c>
-      <c r="B33" s="9" t="inlineStr">
+      <c r="B37" s="12" t="inlineStr">
         <is>
           <t>PLA-BACK</t>
         </is>
       </c>
-      <c r="C33" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D33" s="9" t="inlineStr">
+      <c r="C37" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D37" s="12" t="inlineStr">
         <is>
           <t>Difficult Location Equip Adder-Backyard</t>
         </is>
       </c>
-      <c r="E33" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F33" s="10" t="n">
+      <c r="E37" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F37" s="13" t="n">
         <v>18</v>
       </c>
-      <c r="G33" s="10" t="inlineStr"/>
-      <c r="H33" s="11" t="n">
-        <v>2143.8</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="12" t="inlineStr">
+      <c r="G37" s="13" t="inlineStr"/>
+      <c r="H37" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="9" t="inlineStr">
         <is>
           <t>Point 07</t>
         </is>
       </c>
-      <c r="B34" s="12" t="inlineStr">
+      <c r="B38" s="9" t="inlineStr">
         <is>
           <t>PLA-BACK</t>
         </is>
       </c>
-      <c r="C34" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D34" s="12" t="inlineStr">
+      <c r="C38" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
         <is>
           <t>Difficult Location Equip Adder-Backyard</t>
         </is>
       </c>
-      <c r="E34" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F34" s="13" t="n">
+      <c r="E38" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F38" s="10" t="n">
         <v>18</v>
       </c>
-      <c r="G34" s="13" t="inlineStr"/>
-      <c r="H34" s="14" t="n">
-        <v>2143.8</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="9" t="inlineStr">
+      <c r="G38" s="10" t="inlineStr"/>
+      <c r="H38" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="12" t="inlineStr">
         <is>
           <t>Point 07</t>
         </is>
       </c>
-      <c r="B35" s="9" t="inlineStr">
+      <c r="B39" s="12" t="inlineStr">
         <is>
           <t>PLA-HDIG</t>
         </is>
       </c>
-      <c r="C35" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D35" s="9" t="inlineStr">
+      <c r="C39" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D39" s="12" t="inlineStr">
         <is>
           <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
-      <c r="E35" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F35" s="10" t="n">
+      <c r="E39" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F39" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="G35" s="10" t="inlineStr"/>
-      <c r="H35" s="11" t="n">
-        <v>648.53</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="12" t="inlineStr">
+      <c r="G39" s="13" t="inlineStr"/>
+      <c r="H39" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="9" t="inlineStr">
         <is>
           <t>Point 08</t>
         </is>
       </c>
-      <c r="B36" s="12" t="inlineStr">
+      <c r="B40" s="9" t="inlineStr">
         <is>
           <t>ANC-SHM-10-84-D1</t>
         </is>
       </c>
-      <c r="C36" s="12" t="inlineStr">
+      <c r="C40" s="9" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D36" s="12" t="inlineStr">
+      <c r="D40" s="9" t="inlineStr">
         <is>
           <t>ANC,Sgl Hlx Mach,10in,84in,Db Eye 1in</t>
         </is>
       </c>
-      <c r="E36" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F36" s="13" t="n">
+      <c r="E40" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F40" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="G36" s="13" t="inlineStr"/>
-      <c r="H36" s="14" t="n">
-        <v>28.6</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="15" t="inlineStr">
+      <c r="G40" s="10" t="inlineStr"/>
+      <c r="H40" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H37" s="16" t="n">
-        <v>5522.63</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="7" t="inlineStr">
+      <c r="H41" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="7" t="inlineStr">
         <is>
           <t>Thursday (07/03/2025)</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="8" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="8" t="inlineStr">
         <is>
           <t>Point Number</t>
         </is>
       </c>
-      <c r="B41" s="8" t="inlineStr">
+      <c r="B45" s="8" t="inlineStr">
         <is>
           <t>Billable Unit Code</t>
         </is>
       </c>
-      <c r="C41" s="8" t="inlineStr">
+      <c r="C45" s="8" t="inlineStr">
         <is>
           <t>Work Type</t>
         </is>
       </c>
-      <c r="D41" s="8" t="inlineStr">
+      <c r="D45" s="8" t="inlineStr">
         <is>
           <t>Unit Description</t>
         </is>
       </c>
-      <c r="E41" s="8" t="inlineStr">
+      <c r="E45" s="8" t="inlineStr">
         <is>
           <t>Unit of Measure</t>
         </is>
       </c>
-      <c r="F41" s="8" t="inlineStr">
+      <c r="F45" s="8" t="inlineStr">
         <is>
           <t># Units</t>
         </is>
       </c>
-      <c r="G41" s="8" t="inlineStr">
+      <c r="G45" s="8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="H41" s="8" t="inlineStr">
+      <c r="H45" s="8" t="inlineStr">
         <is>
           <t>Pricing</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="9" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="9" t="inlineStr">
         <is>
           <t>Point 09</t>
         </is>
       </c>
-      <c r="B42" s="9" t="inlineStr">
+      <c r="B46" s="9" t="inlineStr">
         <is>
           <t>POL-40-2</t>
         </is>
       </c>
-      <c r="C42" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D42" s="9" t="inlineStr">
+      <c r="C46" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D46" s="9" t="inlineStr">
         <is>
           <t>Pole,40ft,Class 2</t>
         </is>
       </c>
-      <c r="E42" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F42" s="10" t="n">
+      <c r="E46" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F46" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="G42" s="10" t="inlineStr"/>
-      <c r="H42" s="11" t="n">
-        <v>478.55</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="12" t="inlineStr">
+      <c r="G46" s="10" t="inlineStr"/>
+      <c r="H46" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="12" t="inlineStr">
         <is>
           <t>Point 09</t>
         </is>
       </c>
-      <c r="B43" s="12" t="inlineStr">
+      <c r="B47" s="12" t="inlineStr">
         <is>
           <t>PLA-BACK</t>
         </is>
       </c>
-      <c r="C43" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D43" s="12" t="inlineStr">
+      <c r="C47" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D47" s="12" t="inlineStr">
         <is>
           <t>Difficult Location Equip Adder-Backyard</t>
         </is>
       </c>
-      <c r="E43" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F43" s="13" t="n">
+      <c r="E47" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F47" s="13" t="n">
         <v>18</v>
       </c>
-      <c r="G43" s="13" t="inlineStr"/>
-      <c r="H43" s="14" t="n">
-        <v>2143.8</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="9" t="inlineStr">
+      <c r="G47" s="13" t="inlineStr"/>
+      <c r="H47" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="9" t="inlineStr">
         <is>
           <t>Point 09</t>
         </is>
       </c>
-      <c r="B44" s="9" t="inlineStr">
+      <c r="B48" s="9" t="inlineStr">
         <is>
           <t>PLA-BACK</t>
         </is>
       </c>
-      <c r="C44" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D44" s="9" t="inlineStr">
+      <c r="C48" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D48" s="9" t="inlineStr">
         <is>
           <t>Difficult Location Equip Adder-Backyard</t>
         </is>
       </c>
-      <c r="E44" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F44" s="10" t="n">
+      <c r="E48" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F48" s="10" t="n">
         <v>18</v>
       </c>
-      <c r="G44" s="10" t="inlineStr"/>
-      <c r="H44" s="11" t="n">
-        <v>2143.8</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="15" t="inlineStr">
+      <c r="G48" s="10" t="inlineStr"/>
+      <c r="H48" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H45" s="16" t="n">
-        <v>4766.150000000001</v>
+      <c r="H49" s="16" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A30:H30"/>
     <mergeCell ref="G10:I10"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="A27:G27"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="D2:I4"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="A40:H40"/>
+    <mergeCell ref="A41:G41"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A26:G26"/>
     <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A44:H44"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A37:G37"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="A22:H22"/>
     <mergeCell ref="G11:I11"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>

--- a/generated_docs/WR_89708709_WeekEnding_070625.xlsx
+++ b/generated_docs/WR_89708709_WeekEnding_070625.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I49"/>
+  <dimension ref="A2:I45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/18/2025 09:47 PM</t>
+          <t>Report Generated On: 08/26/2025 09:59 AM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0</v>
+        <v>15295.28</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -643,11 +643,7 @@
           <t>Scope ID #:</t>
         </is>
       </c>
-      <c r="G10" s="6" t="inlineStr">
-        <is>
-          <t>R25P6</t>
-        </is>
-      </c>
+      <c r="G10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="F11" s="4" t="inlineStr">
@@ -742,7 +738,7 @@
       </c>
       <c r="B16" s="9" t="inlineStr">
         <is>
-          <t>CNA-TR</t>
+          <t>POL-40-4</t>
         </is>
       </c>
       <c r="C16" s="9" t="inlineStr">
@@ -752,7 +748,7 @@
       </c>
       <c r="D16" s="9" t="inlineStr">
         <is>
-          <t>CNA,Transfer Conductor</t>
+          <t>Pole,40ft,Class 4</t>
         </is>
       </c>
       <c r="E16" s="9" t="inlineStr">
@@ -761,11 +757,11 @@
         </is>
       </c>
       <c r="F16" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="17">
@@ -776,7 +772,7 @@
       </c>
       <c r="B17" s="12" t="inlineStr">
         <is>
-          <t>POL-40-4</t>
+          <t>PLA-BACK</t>
         </is>
       </c>
       <c r="C17" s="12" t="inlineStr">
@@ -786,7 +782,7 @@
       </c>
       <c r="D17" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 4</t>
+          <t>Difficult Location Equip Adder-Backyard</t>
         </is>
       </c>
       <c r="E17" s="12" t="inlineStr">
@@ -795,763 +791,627 @@
         </is>
       </c>
       <c r="F17" s="13" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>0</v>
+        <v>2143.8</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="9" t="inlineStr">
-        <is>
-          <t>Point 03</t>
-        </is>
-      </c>
-      <c r="B18" s="9" t="inlineStr">
+      <c r="A18" s="15" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="H18" s="16" t="n">
+        <v>2622.35</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>Tuesday (07/01/2025)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="8" t="inlineStr">
+        <is>
+          <t>Point Number</t>
+        </is>
+      </c>
+      <c r="B22" s="8" t="inlineStr">
+        <is>
+          <t>Billable Unit Code</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="inlineStr">
+        <is>
+          <t>Work Type</t>
+        </is>
+      </c>
+      <c r="D22" s="8" t="inlineStr">
+        <is>
+          <t>Unit Description</t>
+        </is>
+      </c>
+      <c r="E22" s="8" t="inlineStr">
+        <is>
+          <t>Unit of Measure</t>
+        </is>
+      </c>
+      <c r="F22" s="8" t="inlineStr">
+        <is>
+          <t># Units</t>
+        </is>
+      </c>
+      <c r="G22" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H22" s="8" t="inlineStr">
+        <is>
+          <t>Pricing</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="9" t="inlineStr">
+        <is>
+          <t>Point 05</t>
+        </is>
+      </c>
+      <c r="B23" s="9" t="inlineStr">
+        <is>
+          <t>POL-40-4</t>
+        </is>
+      </c>
+      <c r="C23" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D23" s="9" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 4</t>
+        </is>
+      </c>
+      <c r="E23" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F23" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="10" t="inlineStr"/>
+      <c r="H23" s="11" t="n">
+        <v>478.55</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="12" t="inlineStr">
+        <is>
+          <t>Point 05</t>
+        </is>
+      </c>
+      <c r="B24" s="12" t="inlineStr">
         <is>
           <t>PLA-BACK</t>
         </is>
       </c>
-      <c r="C18" s="9" t="inlineStr">
+      <c r="C24" s="12" t="inlineStr">
         <is>
           <t>Inst</t>
         </is>
       </c>
-      <c r="D18" s="9" t="inlineStr">
+      <c r="D24" s="12" t="inlineStr">
         <is>
           <t>Difficult Location Equip Adder-Backyard</t>
         </is>
       </c>
-      <c r="E18" s="9" t="inlineStr">
+      <c r="E24" s="12" t="inlineStr">
         <is>
           <t>EA</t>
         </is>
       </c>
-      <c r="F18" s="10" t="n">
+      <c r="F24" s="13" t="n">
+        <v>8</v>
+      </c>
+      <c r="G24" s="13" t="inlineStr"/>
+      <c r="H24" s="14" t="n">
+        <v>952.8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="9" t="inlineStr">
+        <is>
+          <t>Point 05</t>
+        </is>
+      </c>
+      <c r="B25" s="9" t="inlineStr">
+        <is>
+          <t>PLA-BACK</t>
+        </is>
+      </c>
+      <c r="C25" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D25" s="9" t="inlineStr">
+        <is>
+          <t>Difficult Location Equip Adder-Backyard</t>
+        </is>
+      </c>
+      <c r="E25" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F25" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="G25" s="10" t="inlineStr"/>
+      <c r="H25" s="11" t="n">
+        <v>952.8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="15" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="H26" s="16" t="n">
+        <v>2384.15</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="inlineStr">
+        <is>
+          <t>Wednesday (07/02/2025)</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="8" t="inlineStr">
+        <is>
+          <t>Point Number</t>
+        </is>
+      </c>
+      <c r="B30" s="8" t="inlineStr">
+        <is>
+          <t>Billable Unit Code</t>
+        </is>
+      </c>
+      <c r="C30" s="8" t="inlineStr">
+        <is>
+          <t>Work Type</t>
+        </is>
+      </c>
+      <c r="D30" s="8" t="inlineStr">
+        <is>
+          <t>Unit Description</t>
+        </is>
+      </c>
+      <c r="E30" s="8" t="inlineStr">
+        <is>
+          <t>Unit of Measure</t>
+        </is>
+      </c>
+      <c r="F30" s="8" t="inlineStr">
+        <is>
+          <t># Units</t>
+        </is>
+      </c>
+      <c r="G30" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H30" s="8" t="inlineStr">
+        <is>
+          <t>Pricing</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="9" t="inlineStr">
+        <is>
+          <t>Point 07</t>
+        </is>
+      </c>
+      <c r="B31" s="9" t="inlineStr">
+        <is>
+          <t>GYF-38-D-78P-EP</t>
+        </is>
+      </c>
+      <c r="C31" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D31" s="9" t="inlineStr">
+        <is>
+          <t>GYF,3/8,Down,78in Pole mt,EyePlate</t>
+        </is>
+      </c>
+      <c r="E31" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F31" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" s="10" t="inlineStr"/>
+      <c r="H31" s="11" t="n">
+        <v>79.34999999999999</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="12" t="inlineStr">
+        <is>
+          <t>Point 07</t>
+        </is>
+      </c>
+      <c r="B32" s="12" t="inlineStr">
+        <is>
+          <t>POL-40-4</t>
+        </is>
+      </c>
+      <c r="C32" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D32" s="12" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 4</t>
+        </is>
+      </c>
+      <c r="E32" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F32" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" s="13" t="inlineStr"/>
+      <c r="H32" s="14" t="n">
+        <v>478.55</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="9" t="inlineStr">
+        <is>
+          <t>Point 07</t>
+        </is>
+      </c>
+      <c r="B33" s="9" t="inlineStr">
+        <is>
+          <t>PLA-BACK</t>
+        </is>
+      </c>
+      <c r="C33" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="inlineStr">
+        <is>
+          <t>Difficult Location Equip Adder-Backyard</t>
+        </is>
+      </c>
+      <c r="E33" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F33" s="10" t="n">
         <v>18</v>
       </c>
-      <c r="G18" s="10" t="inlineStr"/>
-      <c r="H18" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="15" t="inlineStr">
+      <c r="G33" s="10" t="inlineStr"/>
+      <c r="H33" s="11" t="n">
+        <v>2143.8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="12" t="inlineStr">
+        <is>
+          <t>Point 07</t>
+        </is>
+      </c>
+      <c r="B34" s="12" t="inlineStr">
+        <is>
+          <t>PLA-BACK</t>
+        </is>
+      </c>
+      <c r="C34" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D34" s="12" t="inlineStr">
+        <is>
+          <t>Difficult Location Equip Adder-Backyard</t>
+        </is>
+      </c>
+      <c r="E34" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F34" s="13" t="n">
+        <v>18</v>
+      </c>
+      <c r="G34" s="13" t="inlineStr"/>
+      <c r="H34" s="14" t="n">
+        <v>2143.8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="9" t="inlineStr">
+        <is>
+          <t>Point 07</t>
+        </is>
+      </c>
+      <c r="B35" s="9" t="inlineStr">
+        <is>
+          <t>PLA-HDIG</t>
+        </is>
+      </c>
+      <c r="C35" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="inlineStr">
+        <is>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
+        </is>
+      </c>
+      <c r="E35" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F35" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" s="10" t="inlineStr"/>
+      <c r="H35" s="11" t="n">
+        <v>648.53</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="12" t="inlineStr">
+        <is>
+          <t>Point 08</t>
+        </is>
+      </c>
+      <c r="B36" s="12" t="inlineStr">
+        <is>
+          <t>ANC-SHM-10-84-D1</t>
+        </is>
+      </c>
+      <c r="C36" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D36" s="12" t="inlineStr">
+        <is>
+          <t>ANC,Sgl Hlx Mach,10in,84in,Db Eye 1in</t>
+        </is>
+      </c>
+      <c r="E36" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F36" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" s="13" t="inlineStr"/>
+      <c r="H36" s="14" t="n">
+        <v>28.6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H19" s="16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="7" t="inlineStr">
-        <is>
-          <t>Tuesday (07/01/2025)</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="8" t="inlineStr">
+      <c r="H37" s="16" t="n">
+        <v>5522.63</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="7" t="inlineStr">
+        <is>
+          <t>Thursday (07/03/2025)</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="8" t="inlineStr">
         <is>
           <t>Point Number</t>
         </is>
       </c>
-      <c r="B23" s="8" t="inlineStr">
+      <c r="B41" s="8" t="inlineStr">
         <is>
           <t>Billable Unit Code</t>
         </is>
       </c>
-      <c r="C23" s="8" t="inlineStr">
+      <c r="C41" s="8" t="inlineStr">
         <is>
           <t>Work Type</t>
         </is>
       </c>
-      <c r="D23" s="8" t="inlineStr">
+      <c r="D41" s="8" t="inlineStr">
         <is>
           <t>Unit Description</t>
         </is>
       </c>
-      <c r="E23" s="8" t="inlineStr">
+      <c r="E41" s="8" t="inlineStr">
         <is>
           <t>Unit of Measure</t>
         </is>
       </c>
-      <c r="F23" s="8" t="inlineStr">
+      <c r="F41" s="8" t="inlineStr">
         <is>
           <t># Units</t>
         </is>
       </c>
-      <c r="G23" s="8" t="inlineStr">
+      <c r="G41" s="8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="H23" s="8" t="inlineStr">
+      <c r="H41" s="8" t="inlineStr">
         <is>
           <t>Pricing</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="9" t="inlineStr">
-        <is>
-          <t>Point 05</t>
-        </is>
-      </c>
-      <c r="B24" s="9" t="inlineStr">
-        <is>
-          <t>POL-40-4</t>
-        </is>
-      </c>
-      <c r="C24" s="9" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="9" t="inlineStr">
+        <is>
+          <t>Point 09</t>
+        </is>
+      </c>
+      <c r="B42" s="9" t="inlineStr">
+        <is>
+          <t>POL-40-2</t>
+        </is>
+      </c>
+      <c r="C42" s="9" t="inlineStr">
         <is>
           <t>Inst</t>
         </is>
       </c>
-      <c r="D24" s="9" t="inlineStr">
-        <is>
-          <t>Pole,40ft,Class 4</t>
-        </is>
-      </c>
-      <c r="E24" s="9" t="inlineStr">
+      <c r="D42" s="9" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 2</t>
+        </is>
+      </c>
+      <c r="E42" s="9" t="inlineStr">
         <is>
           <t>EA</t>
         </is>
       </c>
-      <c r="F24" s="10" t="n">
+      <c r="F42" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="G24" s="10" t="inlineStr"/>
-      <c r="H24" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="12" t="inlineStr">
-        <is>
-          <t>Point 05</t>
-        </is>
-      </c>
-      <c r="B25" s="12" t="inlineStr">
+      <c r="G42" s="10" t="inlineStr"/>
+      <c r="H42" s="11" t="n">
+        <v>478.55</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="12" t="inlineStr">
+        <is>
+          <t>Point 09</t>
+        </is>
+      </c>
+      <c r="B43" s="12" t="inlineStr">
         <is>
           <t>PLA-BACK</t>
         </is>
       </c>
-      <c r="C25" s="12" t="inlineStr">
+      <c r="C43" s="12" t="inlineStr">
         <is>
           <t>Inst</t>
         </is>
       </c>
-      <c r="D25" s="12" t="inlineStr">
+      <c r="D43" s="12" t="inlineStr">
         <is>
           <t>Difficult Location Equip Adder-Backyard</t>
         </is>
       </c>
-      <c r="E25" s="12" t="inlineStr">
+      <c r="E43" s="12" t="inlineStr">
         <is>
           <t>EA</t>
         </is>
       </c>
-      <c r="F25" s="13" t="n">
-        <v>8</v>
-      </c>
-      <c r="G25" s="13" t="inlineStr"/>
-      <c r="H25" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="9" t="inlineStr">
-        <is>
-          <t>Point 05</t>
-        </is>
-      </c>
-      <c r="B26" s="9" t="inlineStr">
+      <c r="F43" s="13" t="n">
+        <v>18</v>
+      </c>
+      <c r="G43" s="13" t="inlineStr"/>
+      <c r="H43" s="14" t="n">
+        <v>2143.8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="9" t="inlineStr">
+        <is>
+          <t>Point 09</t>
+        </is>
+      </c>
+      <c r="B44" s="9" t="inlineStr">
         <is>
           <t>PLA-BACK</t>
         </is>
       </c>
-      <c r="C26" s="9" t="inlineStr">
+      <c r="C44" s="9" t="inlineStr">
         <is>
           <t>Inst</t>
         </is>
       </c>
-      <c r="D26" s="9" t="inlineStr">
+      <c r="D44" s="9" t="inlineStr">
         <is>
           <t>Difficult Location Equip Adder-Backyard</t>
         </is>
       </c>
-      <c r="E26" s="9" t="inlineStr">
+      <c r="E44" s="9" t="inlineStr">
         <is>
           <t>EA</t>
         </is>
       </c>
-      <c r="F26" s="10" t="n">
-        <v>8</v>
-      </c>
-      <c r="G26" s="10" t="inlineStr"/>
-      <c r="H26" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="15" t="inlineStr">
+      <c r="F44" s="10" t="n">
+        <v>18</v>
+      </c>
+      <c r="G44" s="10" t="inlineStr"/>
+      <c r="H44" s="11" t="n">
+        <v>2143.8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H27" s="16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="7" t="inlineStr">
-        <is>
-          <t>Wednesday (07/02/2025)</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="8" t="inlineStr">
-        <is>
-          <t>Point Number</t>
-        </is>
-      </c>
-      <c r="B31" s="8" t="inlineStr">
-        <is>
-          <t>Billable Unit Code</t>
-        </is>
-      </c>
-      <c r="C31" s="8" t="inlineStr">
-        <is>
-          <t>Work Type</t>
-        </is>
-      </c>
-      <c r="D31" s="8" t="inlineStr">
-        <is>
-          <t>Unit Description</t>
-        </is>
-      </c>
-      <c r="E31" s="8" t="inlineStr">
-        <is>
-          <t>Unit of Measure</t>
-        </is>
-      </c>
-      <c r="F31" s="8" t="inlineStr">
-        <is>
-          <t># Units</t>
-        </is>
-      </c>
-      <c r="G31" s="8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H31" s="8" t="inlineStr">
-        <is>
-          <t>Pricing</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="9" t="inlineStr">
-        <is>
-          <t>Point 07</t>
-        </is>
-      </c>
-      <c r="B32" s="9" t="inlineStr">
-        <is>
-          <t>GYD-MPY</t>
-        </is>
-      </c>
-      <c r="C32" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D32" s="9" t="inlineStr">
-        <is>
-          <t>GYD,Marker-Plastic-Yellow</t>
-        </is>
-      </c>
-      <c r="E32" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F32" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G32" s="10" t="inlineStr"/>
-      <c r="H32" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="12" t="inlineStr">
-        <is>
-          <t>Point 07</t>
-        </is>
-      </c>
-      <c r="B33" s="12" t="inlineStr">
-        <is>
-          <t>GYF-38-42W-I</t>
-        </is>
-      </c>
-      <c r="C33" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D33" s="12" t="inlineStr">
-        <is>
-          <t>GYF,3/8,42In Wire Mt,Insulator Adder</t>
-        </is>
-      </c>
-      <c r="E33" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F33" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G33" s="13" t="inlineStr"/>
-      <c r="H33" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="9" t="inlineStr">
-        <is>
-          <t>Point 07</t>
-        </is>
-      </c>
-      <c r="B34" s="9" t="inlineStr">
-        <is>
-          <t>GYF-38-D-78P-EP</t>
-        </is>
-      </c>
-      <c r="C34" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D34" s="9" t="inlineStr">
-        <is>
-          <t>GYF,3/8,Down,78in Pole mt,EyePlate</t>
-        </is>
-      </c>
-      <c r="E34" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F34" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G34" s="10" t="inlineStr"/>
-      <c r="H34" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="12" t="inlineStr">
-        <is>
-          <t>Point 07</t>
-        </is>
-      </c>
-      <c r="B35" s="12" t="inlineStr">
-        <is>
-          <t>GYW-38</t>
-        </is>
-      </c>
-      <c r="C35" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D35" s="12" t="inlineStr">
-        <is>
-          <t>GYW,3/8 in. EHS (15,400 lbs)</t>
-        </is>
-      </c>
-      <c r="E35" s="12" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F35" s="13" t="n">
-        <v>40</v>
-      </c>
-      <c r="G35" s="13" t="inlineStr"/>
-      <c r="H35" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="9" t="inlineStr">
-        <is>
-          <t>Point 07</t>
-        </is>
-      </c>
-      <c r="B36" s="9" t="inlineStr">
-        <is>
-          <t>POL-40-4</t>
-        </is>
-      </c>
-      <c r="C36" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D36" s="9" t="inlineStr">
-        <is>
-          <t>Pole,40ft,Class 4</t>
-        </is>
-      </c>
-      <c r="E36" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F36" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G36" s="10" t="inlineStr"/>
-      <c r="H36" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="12" t="inlineStr">
-        <is>
-          <t>Point 07</t>
-        </is>
-      </c>
-      <c r="B37" s="12" t="inlineStr">
-        <is>
-          <t>PLA-BACK</t>
-        </is>
-      </c>
-      <c r="C37" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D37" s="12" t="inlineStr">
-        <is>
-          <t>Difficult Location Equip Adder-Backyard</t>
-        </is>
-      </c>
-      <c r="E37" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F37" s="13" t="n">
-        <v>18</v>
-      </c>
-      <c r="G37" s="13" t="inlineStr"/>
-      <c r="H37" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="9" t="inlineStr">
-        <is>
-          <t>Point 07</t>
-        </is>
-      </c>
-      <c r="B38" s="9" t="inlineStr">
-        <is>
-          <t>PLA-BACK</t>
-        </is>
-      </c>
-      <c r="C38" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D38" s="9" t="inlineStr">
-        <is>
-          <t>Difficult Location Equip Adder-Backyard</t>
-        </is>
-      </c>
-      <c r="E38" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F38" s="10" t="n">
-        <v>18</v>
-      </c>
-      <c r="G38" s="10" t="inlineStr"/>
-      <c r="H38" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="12" t="inlineStr">
-        <is>
-          <t>Point 07</t>
-        </is>
-      </c>
-      <c r="B39" s="12" t="inlineStr">
-        <is>
-          <t>PLA-HDIG</t>
-        </is>
-      </c>
-      <c r="C39" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D39" s="12" t="inlineStr">
-        <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
-        </is>
-      </c>
-      <c r="E39" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F39" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G39" s="13" t="inlineStr"/>
-      <c r="H39" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="9" t="inlineStr">
-        <is>
-          <t>Point 08</t>
-        </is>
-      </c>
-      <c r="B40" s="9" t="inlineStr">
-        <is>
-          <t>ANC-SHM-10-84-D1</t>
-        </is>
-      </c>
-      <c r="C40" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D40" s="9" t="inlineStr">
-        <is>
-          <t>ANC,Sgl Hlx Mach,10in,84in,Db Eye 1in</t>
-        </is>
-      </c>
-      <c r="E40" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F40" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G40" s="10" t="inlineStr"/>
-      <c r="H40" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="15" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="H41" s="16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="7" t="inlineStr">
-        <is>
-          <t>Thursday (07/03/2025)</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="8" t="inlineStr">
-        <is>
-          <t>Point Number</t>
-        </is>
-      </c>
-      <c r="B45" s="8" t="inlineStr">
-        <is>
-          <t>Billable Unit Code</t>
-        </is>
-      </c>
-      <c r="C45" s="8" t="inlineStr">
-        <is>
-          <t>Work Type</t>
-        </is>
-      </c>
-      <c r="D45" s="8" t="inlineStr">
-        <is>
-          <t>Unit Description</t>
-        </is>
-      </c>
-      <c r="E45" s="8" t="inlineStr">
-        <is>
-          <t>Unit of Measure</t>
-        </is>
-      </c>
-      <c r="F45" s="8" t="inlineStr">
-        <is>
-          <t># Units</t>
-        </is>
-      </c>
-      <c r="G45" s="8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H45" s="8" t="inlineStr">
-        <is>
-          <t>Pricing</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="9" t="inlineStr">
-        <is>
-          <t>Point 09</t>
-        </is>
-      </c>
-      <c r="B46" s="9" t="inlineStr">
-        <is>
-          <t>POL-40-2</t>
-        </is>
-      </c>
-      <c r="C46" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D46" s="9" t="inlineStr">
-        <is>
-          <t>Pole,40ft,Class 2</t>
-        </is>
-      </c>
-      <c r="E46" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F46" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G46" s="10" t="inlineStr"/>
-      <c r="H46" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="12" t="inlineStr">
-        <is>
-          <t>Point 09</t>
-        </is>
-      </c>
-      <c r="B47" s="12" t="inlineStr">
-        <is>
-          <t>PLA-BACK</t>
-        </is>
-      </c>
-      <c r="C47" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D47" s="12" t="inlineStr">
-        <is>
-          <t>Difficult Location Equip Adder-Backyard</t>
-        </is>
-      </c>
-      <c r="E47" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F47" s="13" t="n">
-        <v>18</v>
-      </c>
-      <c r="G47" s="13" t="inlineStr"/>
-      <c r="H47" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="9" t="inlineStr">
-        <is>
-          <t>Point 09</t>
-        </is>
-      </c>
-      <c r="B48" s="9" t="inlineStr">
-        <is>
-          <t>PLA-BACK</t>
-        </is>
-      </c>
-      <c r="C48" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D48" s="9" t="inlineStr">
-        <is>
-          <t>Difficult Location Equip Adder-Backyard</t>
-        </is>
-      </c>
-      <c r="E48" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F48" s="10" t="n">
-        <v>18</v>
-      </c>
-      <c r="G48" s="10" t="inlineStr"/>
-      <c r="H48" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="15" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="H49" s="16" t="n">
-        <v>0</v>
+      <c r="H45" s="16" t="n">
+        <v>4766.150000000001</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="A21:H21"/>
     <mergeCell ref="G10:I10"/>
-    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A29:H29"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="D2:I4"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A41:G41"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="A40:H40"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A26:G26"/>
     <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A44:H44"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="A49:G49"/>
-    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A37:G37"/>
     <mergeCell ref="G11:I11"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
